--- a/Porewater/Sulfide/Synoptic_CB/2025/202511/Raw Data/2025Nov_H2S_Datasheets.xlsx
+++ b/Porewater/Sulfide/Synoptic_CB/2025/202511/Raw Data/2025Nov_H2S_Datasheets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sinet-my.sharepoint.com/personal/readz_si_edu1/Documents/synoptic-discrete-data/Porewater/Sulfide/Synoptic_CB/2025/202511/Raw Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="373" documentId="13_ncr:1_{92021526-6563-4582-BD6D-EF31E3B89D41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5D204E39-F4CC-435D-8DDE-78E86659AFB9}"/>
+  <xr:revisionPtr revIDLastSave="376" documentId="13_ncr:1_{92021526-6563-4582-BD6D-EF31E3B89D41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7E4CA9F7-73A7-436B-A49E-0B8666E4B8BC}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="690" windowWidth="19440" windowHeight="14880" tabRatio="728" firstSheet="1" activeTab="4" xr2:uid="{23FB6DB2-3641-4E78-A68E-113D11F8B05A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="728" firstSheet="1" activeTab="5" xr2:uid="{23FB6DB2-3641-4E78-A68E-113D11F8B05A}"/>
   </bookViews>
   <sheets>
     <sheet name="STDs 20251110" sheetId="9" r:id="rId1"/>
@@ -18,9 +18,9 @@
     <sheet name="Plate 2 20251110" sheetId="4" r:id="rId3"/>
     <sheet name="Plate 3 20251110" sheetId="5" r:id="rId4"/>
     <sheet name="STDs 20251114" sheetId="7" r:id="rId5"/>
-    <sheet name="Plate 3 20251114" sheetId="8" r:id="rId6"/>
-    <sheet name="Plate 4 20251114" sheetId="10" r:id="rId7"/>
-    <sheet name="Plate 5 20251114" sheetId="11" r:id="rId8"/>
+    <sheet name="Plate 4 20251114" sheetId="8" r:id="rId6"/>
+    <sheet name="Plate 5 20251114" sheetId="10" r:id="rId7"/>
+    <sheet name="Plate 6 20251114" sheetId="11" r:id="rId8"/>
     <sheet name="QAQC" sheetId="2" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191028"/>
@@ -3349,7 +3349,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FE21E34-F1ED-4A1E-A879-8C5B834575EB}">
   <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
@@ -3827,8 +3827,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFA7A128-AAAB-4C49-ACE5-ABC21CC91650}">
   <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S24" sqref="S24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
